--- a/Examples/pcb/PCB2050_model.xlsx
+++ b/Examples/pcb/PCB2050_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB79420-8321-4EE0-8ADA-5A0DCFFB2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B140ABA5-07C2-4DCF-A7C1-845144CEA3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15480" tabRatio="935" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="23670" windowHeight="12525" tabRatio="935" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="50" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="WasteDefinition" sheetId="8" r:id="rId9"/>
     <sheet name="WasteAllocation" sheetId="17" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Flows!$A$1:$B$36</definedName>
     <definedName name="cgam_flows" localSheetId="3">Flows!$A$1:$B$6</definedName>
@@ -51,38 +54,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>usuario</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{784E937E-64E4-4E49-A2D0-AC309A4AD9B4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Colores tipos:
-- Electricidad --&gt; Amarillo
-- Coke --&gt; Marrón
-- Gas natural --&gt; Gris
-- PCB --&gt; Verde
-- Fundentes --&gt; Azul (Se divide el coste calculado entre la exergía total. (pestaña All_Flows)
-- Aire --&gt; Blanco
-- Agua --&gt; Blanco
-- Electrolito --&gt; Morado
-- Químicos Slime recovery --&gt; Naranja</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -137,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="191">
   <si>
     <t>key</t>
   </si>
@@ -328,9 +299,6 @@
     <t>F2</t>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -424,22 +392,13 @@
     <t>L2</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>N1</t>
-  </si>
-  <si>
-    <t>N3</t>
   </si>
   <si>
     <t>Formula de exergía de concentración y ver si tiene sentido</t>
@@ -452,9 +411,6 @@
   </si>
   <si>
     <t>AB2</t>
-  </si>
-  <si>
-    <t>BW</t>
   </si>
   <si>
     <t>FK</t>
@@ -479,9 +435,6 @@
   </si>
   <si>
     <t>N1+N2+MN</t>
-  </si>
-  <si>
-    <t>AIR</t>
   </si>
   <si>
     <t>DeCu</t>
@@ -562,9 +515,6 @@
     <t>Exahusted Anode</t>
   </si>
   <si>
-    <t>H3</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
@@ -617,9 +567,6 @@
   </si>
   <si>
     <t>Slag Waste</t>
-  </si>
-  <si>
-    <t>HW</t>
   </si>
   <si>
     <t>Hot Gases Waste</t>
@@ -682,16 +629,7 @@
     <t>F1+F2+KF+(EF-FD)</t>
   </si>
   <si>
-    <t>F3+FK</t>
-  </si>
-  <si>
     <t>KL+KF</t>
-  </si>
-  <si>
-    <t>L3+LM</t>
-  </si>
-  <si>
-    <t>M3+MN</t>
   </si>
   <si>
     <t>GH</t>
@@ -709,41 +647,47 @@
     <t>H1+H2+(GH+CI-H4)</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>NR_Elec</t>
-  </si>
-  <si>
-    <t>NR_H2</t>
-  </si>
-  <si>
-    <t>R_Elec</t>
-  </si>
-  <si>
-    <t>R_H2</t>
-  </si>
-  <si>
     <t>BC2020</t>
   </si>
   <si>
     <t>BC2050</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>SLW</t>
+  </si>
+  <si>
+    <t>HGW</t>
+  </si>
+  <si>
+    <t>Cu+FK</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>Ag+LM</t>
+  </si>
+  <si>
+    <t>Au+MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NR</t>
+  </si>
+  <si>
+    <t>REN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,12 +700,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -890,14 +828,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="48">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,25 +1090,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,48 +1208,48 @@
   </borders>
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1356,34 +1276,19 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="20% - Accent1" xfId="2" xr:uid="{A37FE372-3E7C-47E9-8AF8-82999DC37354}"/>
@@ -30800,6 +30705,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PhysicalDiagram"/>
+      <sheetName val="PhysicalDiagram_OLD"/>
+      <sheetName val="Validate"/>
+      <sheetName val="Flows"/>
+      <sheetName val="Processes"/>
+      <sheetName val="Exergy"/>
+      <sheetName val="Format"/>
+      <sheetName val="ResourcesCost"/>
+      <sheetName val="WasteDefinition"/>
+      <sheetName val="WasteAllocation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>SLW</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>HGW</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_flows" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -31100,12 +31050,12 @@
   <sheetData>
     <row r="11" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -31119,14 +31069,14 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
@@ -31139,10 +31089,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -31375,10 +31325,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31396,7 +31346,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -31407,7 +31357,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -31418,557 +31368,557 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="A5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="A12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="A13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="A18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="A19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
+      <c r="A21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>4</v>
+      <c r="A24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
+      <c r="A25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>2</v>
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>2</v>
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>2</v>
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>4</v>
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>2</v>
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>2</v>
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>2</v>
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>2</v>
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>2</v>
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>2</v>
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>4</v>
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>2</v>
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>2</v>
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
+      <c r="A48" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>2</v>
+      <c r="A49" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>2</v>
+      <c r="A50" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -32025,12 +31975,6 @@
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B35" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
@@ -32039,6 +31983,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32048,7 +31993,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32087,13 +32032,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -32104,10 +32049,10 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -32121,10 +32066,10 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -32138,10 +32083,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -32155,10 +32100,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -32172,13 +32117,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -32189,13 +32134,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -32206,13 +32151,13 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -32220,16 +32165,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -32237,16 +32182,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>186</v>
-      </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -32254,16 +32199,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" t="s">
         <v>187</v>
-      </c>
-      <c r="D12" t="s">
-        <v>183</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -32271,16 +32216,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" t="s">
         <v>188</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -32288,16 +32233,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -32305,16 +32250,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>105</v>
+      <c r="D15" t="str">
+        <f>[1]Flows!A52</f>
+        <v>SLW</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -32322,16 +32268,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" t="s">
-        <v>160</v>
+        <v>135</v>
+      </c>
+      <c r="D16" t="str">
+        <f>[1]Flows!A53</f>
+        <v>HGW</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -32345,13 +32292,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32364,18 +32311,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
+      <c r="A2" s="3" t="str">
+        <f>Flows!A2</f>
+        <v>A1</v>
       </c>
       <c r="B2" s="3">
         <v>1101744.4940024994</v>
@@ -32388,8 +32336,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
+      <c r="A3" s="3" t="str">
+        <f>Flows!A3</f>
+        <v>A2</v>
       </c>
       <c r="B3" s="3">
         <v>877.4</v>
@@ -32402,703 +32351,753 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>103</v>
+      <c r="A4" s="3" t="str">
+        <f>Flows!A4</f>
+        <v>B2</v>
       </c>
       <c r="B4" s="3">
-        <v>66178.293835996054</v>
+        <v>1551.5980110100579</v>
       </c>
       <c r="C4" s="3">
-        <v>66178.293835996054</v>
+        <v>1551.5980110100579</v>
       </c>
       <c r="D4" s="3">
-        <v>66178.293835996054</v>
+        <v>1551.5980110100579</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
+      <c r="A5" s="3" t="str">
+        <f>Flows!A5</f>
+        <v>C1</v>
       </c>
       <c r="B5" s="3">
-        <v>1035566.2001665032</v>
+        <v>1976.7766512828066</v>
       </c>
       <c r="C5" s="3">
-        <v>1475412.8962951419</v>
+        <v>1976.7766512828066</v>
       </c>
       <c r="D5" s="3">
-        <v>11622444.489267178</v>
+        <v>1976.7766512828066</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
+      <c r="A6" s="3" t="str">
+        <f>Flows!A6</f>
+        <v>C2</v>
       </c>
       <c r="B6" s="3">
-        <v>3075.855087905401</v>
+        <v>1517.7314774427114</v>
       </c>
       <c r="C6" s="3">
-        <v>3075.855087905401</v>
+        <v>1517.7314774427114</v>
       </c>
       <c r="D6" s="3">
-        <v>3075.855087905401</v>
+        <v>1517.7314774427114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>52</v>
+      <c r="A7" s="3" t="str">
+        <f>Flows!A7</f>
+        <v>D1</v>
       </c>
       <c r="B7" s="3">
-        <v>1049687.6433545833</v>
+        <v>4455.1553999217176</v>
       </c>
       <c r="C7" s="3">
-        <v>1490645.1702654322</v>
+        <v>4455.1553999217176</v>
       </c>
       <c r="D7" s="3">
-        <v>11752186.998622509</v>
+        <v>4455.1553999217176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>131</v>
+      <c r="A8" s="3" t="str">
+        <f>Flows!A8</f>
+        <v>D2</v>
       </c>
       <c r="B8" s="3">
-        <v>19009.094867455518</v>
+        <v>407.11280819108799</v>
       </c>
       <c r="C8" s="3">
-        <v>19009.094867455518</v>
+        <v>407.11280819108799</v>
       </c>
       <c r="D8" s="3">
-        <v>19009.094867455518</v>
+        <v>407.11280819108799</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
+      <c r="A9" s="3" t="str">
+        <f>Flows!A9</f>
+        <v>D3</v>
       </c>
       <c r="B9" s="3">
-        <v>14341.913880398542</v>
+        <v>77.961918282329151</v>
       </c>
       <c r="C9" s="3">
-        <v>14456.984670343048</v>
+        <v>77.961918282329151</v>
       </c>
       <c r="D9" s="3">
-        <v>26319.082348503525</v>
+        <v>77.961918282329151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>132</v>
+      <c r="A10" s="3" t="str">
+        <f>Flows!A10</f>
+        <v>E1</v>
       </c>
       <c r="B10" s="3">
-        <v>3578.9718523809843</v>
+        <v>23.004962074669844</v>
       </c>
       <c r="C10" s="3">
-        <v>3578.9718523809843</v>
+        <v>23.004962074669844</v>
       </c>
       <c r="D10" s="3">
-        <v>3578.9718523809843</v>
+        <v>23.004962074669844</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
+      <c r="A11" s="3" t="str">
+        <f>Flows!A11</f>
+        <v>F1</v>
       </c>
       <c r="B11" s="3">
-        <v>1306.2443043564317</v>
+        <v>1426.1038739068899</v>
       </c>
       <c r="C11" s="3">
-        <v>1306.2443043564317</v>
+        <v>1426.1038739068899</v>
       </c>
       <c r="D11" s="3">
-        <v>1306.2443043564317</v>
+        <v>1426.1038739068899</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
+      <c r="A12" s="3" t="str">
+        <f>Flows!A12</f>
+        <v>F2</v>
       </c>
       <c r="B12" s="3">
-        <v>28016.119011029859</v>
+        <v>159.93037774533582</v>
       </c>
       <c r="C12" s="3">
-        <v>29242.020583184891</v>
+        <v>159.93037774533582</v>
       </c>
       <c r="D12" s="3">
-        <v>155614.35364639165</v>
+        <v>159.93037774533582</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
+      <c r="A13" s="3" t="str">
+        <f>Flows!A13</f>
+        <v>G1</v>
       </c>
       <c r="B13" s="3">
-        <v>1025164.7876097838</v>
+        <v>18.860842352260732</v>
       </c>
       <c r="C13" s="3">
-        <v>1465021.4750531851</v>
+        <v>18.860842352260732</v>
       </c>
       <c r="D13" s="3">
-        <v>11613083.024904003</v>
+        <v>18.860842352260732</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>133</v>
+      <c r="A14" s="3" t="str">
+        <f>Flows!A14</f>
+        <v>H1</v>
       </c>
       <c r="B14" s="3">
-        <v>1111.8116913091083</v>
+        <v>276.90367962963307</v>
       </c>
       <c r="C14" s="3">
-        <v>1111.8116913091083</v>
+        <v>276.90367962963307</v>
       </c>
       <c r="D14" s="3">
-        <v>1111.8116913091083</v>
+        <v>276.90367962963307</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
+      <c r="A15" s="3" t="str">
+        <f>Flows!A15</f>
+        <v>H2</v>
       </c>
       <c r="B15" s="3">
-        <v>3253.6107748918034</v>
+        <v>103.30918253911165</v>
       </c>
       <c r="C15" s="3">
-        <v>3253.6107748918034</v>
+        <v>103.30918253911165</v>
       </c>
       <c r="D15" s="3">
-        <v>3253.6107748918034</v>
+        <v>103.30918253911165</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
+      <c r="A16" s="3" t="str">
+        <f>Flows!A16</f>
+        <v>J1</v>
       </c>
       <c r="B16" s="3">
-        <v>506.94719430975795</v>
+        <v>1030.2258184707816</v>
       </c>
       <c r="C16" s="3">
-        <v>506.94719430975795</v>
+        <v>1030.2258184707816</v>
       </c>
       <c r="D16" s="3">
-        <v>506.94719430975795</v>
+        <v>1030.2258184707816</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
+      <c r="A17" s="3" t="str">
+        <f>Flows!A17</f>
+        <v>J2</v>
       </c>
       <c r="B17" s="3">
-        <v>50.817784571947463</v>
+        <v>3470.9686700000002</v>
       </c>
       <c r="C17" s="3">
-        <v>50.817784571947463</v>
+        <v>3470.9686700000002</v>
       </c>
       <c r="D17" s="3">
-        <v>50.817784571947463</v>
+        <v>3470.9686700000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>55</v>
+      <c r="A18" s="3" t="str">
+        <f>Flows!A18</f>
+        <v>K1</v>
       </c>
       <c r="B18" s="3">
-        <v>3238.9643604117059</v>
+        <v>6318.6202630866837</v>
       </c>
       <c r="C18" s="3">
-        <v>3364.1618361785549</v>
+        <v>6318.6202630866837</v>
       </c>
       <c r="D18" s="3">
-        <v>16270.171148547835</v>
+        <v>6318.6202630866837</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>58</v>
+      <c r="A19" s="3" t="str">
+        <f>Flows!A19</f>
+        <v>K2</v>
       </c>
       <c r="B19" s="3">
-        <v>1175917.402320601</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>1681608.6087241147</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>13337036.752637275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>59</v>
+      <c r="A20" s="3" t="str">
+        <f>Flows!A20</f>
+        <v>L1</v>
       </c>
       <c r="B20" s="3">
-        <v>22.85801131202361</v>
+        <v>2694.4458295273284</v>
       </c>
       <c r="C20" s="3">
-        <v>22.85801131202361</v>
+        <v>2694.4458295273284</v>
       </c>
       <c r="D20" s="3">
-        <v>22.85801131202361</v>
+        <v>2694.4458295273284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
+      <c r="A21" s="3" t="str">
+        <f>Flows!A21</f>
+        <v>L2</v>
       </c>
       <c r="B21" s="3">
-        <v>1175203.8647644774</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3">
-        <v>1680895.071167991</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>13336323.215081152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>61</v>
+      <c r="A22" s="3" t="str">
+        <f>Flows!A22</f>
+        <v>M1</v>
       </c>
       <c r="B22" s="3">
-        <v>1413.3138069700799</v>
+        <v>413.33354580790495</v>
       </c>
       <c r="C22" s="3">
-        <v>1413.3138069700799</v>
+        <v>413.33354580790495</v>
       </c>
       <c r="D22" s="3">
-        <v>1413.3138069700799</v>
+        <v>413.33354580790495</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
+      <c r="A23" s="3" t="str">
+        <f>Flows!A23</f>
+        <v>M2</v>
       </c>
       <c r="B23" s="3">
-        <v>159.26099896804683</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>159.26099896804683</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>159.26099896804683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>63</v>
+      <c r="A24" s="3" t="str">
+        <f>Flows!A24</f>
+        <v>N1</v>
       </c>
       <c r="B24" s="3">
-        <v>54283.326419433761</v>
+        <v>7407.4112151954041</v>
       </c>
       <c r="C24" s="3">
-        <v>57008.135873308413</v>
+        <v>7407.4112151954041</v>
       </c>
       <c r="D24" s="3">
-        <v>337895.71743787127</v>
+        <v>7407.4112151954041</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
+      <c r="A25" s="3" t="str">
+        <f>Flows!A25</f>
+        <v>N2</v>
       </c>
       <c r="B25" s="3">
-        <v>153389.68023097268</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>219354.57302207651</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>1740178.8739776385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>106</v>
+      <c r="A26" s="3" t="str">
+        <f>Flows!A26</f>
+        <v>AB1</v>
       </c>
       <c r="B26" s="3">
-        <v>966554.95968526753</v>
+        <v>66178.293835996054</v>
       </c>
       <c r="C26" s="3">
-        <v>1403511.7499341634</v>
+        <v>66178.293835996054</v>
       </c>
       <c r="D26" s="3">
-        <v>11252618.668122465</v>
+        <v>66178.293835996054</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
+      <c r="A27" s="3" t="str">
+        <f>Flows!A27</f>
+        <v>AB2</v>
       </c>
       <c r="B27" s="3">
-        <v>43.4900985749494</v>
+        <v>1035566.2001665032</v>
       </c>
       <c r="C27" s="3">
-        <v>43.4900985749494</v>
+        <v>1475412.8962951419</v>
       </c>
       <c r="D27" s="3">
-        <v>43.4900985749494</v>
+        <v>11622444.489267178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>185</v>
+      <c r="A28" s="3" t="str">
+        <f>Flows!A28</f>
+        <v>BC</v>
       </c>
       <c r="B28" s="3">
-        <v>18696.063178681095</v>
+        <v>1054384.0209539761</v>
       </c>
       <c r="C28" s="3">
-        <v>18696.063178681095</v>
+        <v>1495567.133131674</v>
       </c>
       <c r="D28" s="3">
-        <v>18696.063178681095</v>
+        <v>11780363.468313694</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>65</v>
+      <c r="A29" s="3" t="str">
+        <f>Flows!A29</f>
+        <v>BG</v>
       </c>
       <c r="B29" s="3">
-        <v>307.77912273090294</v>
+        <v>17800.057135963369</v>
       </c>
       <c r="C29" s="3">
-        <v>307.77912273090294</v>
+        <v>17800.057135963369</v>
       </c>
       <c r="D29" s="3">
-        <v>307.77912273090294</v>
+        <v>17800.057135963369</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
+      <c r="A30" s="3" t="str">
+        <f>Flows!A30</f>
+        <v>B3</v>
       </c>
       <c r="B30" s="3">
-        <v>114.82841114446765</v>
+        <v>11207.74280336316</v>
       </c>
       <c r="C30" s="3">
-        <v>114.82841114446765</v>
+        <v>11297.732090417421</v>
       </c>
       <c r="D30" s="3">
-        <v>114.82841114446765</v>
+        <v>20574.297529313444</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>141</v>
+      <c r="A31" s="3" t="str">
+        <f>Flows!A31</f>
+        <v>CB</v>
       </c>
       <c r="B31" s="3">
-        <v>9775.5926101364985</v>
+        <v>32254.056410631896</v>
       </c>
       <c r="C31" s="3">
-        <v>9775.5926101364985</v>
+        <v>33680.461746746274</v>
       </c>
       <c r="D31" s="3">
-        <v>9775.5926101364985</v>
+        <v>180721.76939569783</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>142</v>
+      <c r="A32" s="3" t="str">
+        <f>Flows!A32</f>
+        <v>CD</v>
       </c>
       <c r="B32" s="3">
-        <v>5417.7850981752708</v>
+        <v>1027456.5037477572</v>
       </c>
       <c r="C32" s="3">
-        <v>5417.7850981752708</v>
+        <v>1467427.1573803532</v>
       </c>
       <c r="D32" s="3">
-        <v>5417.7850981752708</v>
+        <v>11627236.936898174</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>67</v>
+      <c r="A33" s="3" t="str">
+        <f>Flows!A33</f>
+        <v>CI</v>
       </c>
       <c r="B33" s="3">
-        <v>1091.903617399568</v>
+        <v>683.94913122363914</v>
       </c>
       <c r="C33" s="3">
-        <v>1091.903617399568</v>
+        <v>683.94913122363914</v>
       </c>
       <c r="D33" s="3">
-        <v>1091.903617399568</v>
+        <v>683.94913122363914</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>49</v>
+      <c r="A34" s="3" t="str">
+        <f>Flows!A34</f>
+        <v>DC</v>
       </c>
       <c r="B34" s="3">
-        <v>0</v>
+        <v>4829.1007822415077</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>5043.0535583315141</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>27098.422516145965</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
+      <c r="A35" s="3" t="str">
+        <f>Flows!A35</f>
+        <v>DE</v>
       </c>
       <c r="B35" s="3">
-        <v>691.43589668492984</v>
+        <v>1176477.3775613287</v>
       </c>
       <c r="C35" s="3">
-        <v>691.43589668492984</v>
+        <v>1682197.5218184248</v>
       </c>
       <c r="D35" s="3">
-        <v>691.43589668492984</v>
+        <v>13340608.730729658</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
+      <c r="A36" s="3" t="str">
+        <f>Flows!A36</f>
+        <v>EF</v>
       </c>
       <c r="B36" s="3">
-        <v>61.009049707493816</v>
+        <v>1175759.0945213542</v>
       </c>
       <c r="C36" s="3">
-        <v>61.009049707493816</v>
+        <v>1681479.2387784503</v>
       </c>
       <c r="D36" s="3">
-        <v>61.009049707493816</v>
+        <v>13339890.447689682</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>91</v>
+      <c r="A37" s="3" t="str">
+        <f>Flows!A37</f>
+        <v>FD</v>
       </c>
       <c r="B37" s="3">
-        <v>7161.5811149809306</v>
+        <v>153359.19264649265</v>
       </c>
       <c r="C37" s="3">
-        <v>7161.5811149809306</v>
+        <v>219322.45532849868</v>
       </c>
       <c r="D37" s="3">
-        <v>7161.5811149809306</v>
+        <v>1739978.7161293542</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>92</v>
+      <c r="A38" s="3" t="str">
+        <f>Flows!A38</f>
+        <v>FK</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
+        <v>966555.25514036044</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>1403512.0948275938</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>11252624.109377664</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>107</v>
+      <c r="A39" s="3" t="str">
+        <f>Flows!A39</f>
+        <v>GH</v>
       </c>
       <c r="B39" s="3">
-        <v>107.69619861525193</v>
+        <v>17561.899402017785</v>
       </c>
       <c r="C39" s="3">
-        <v>113.10213320309946</v>
+        <v>17561.899402017785</v>
       </c>
       <c r="D39" s="3">
-        <v>670.37408861175254</v>
+        <v>17561.899402017785</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>88</v>
+      <c r="A40" s="3" t="str">
+        <f>Flows!A40</f>
+        <v>H4</v>
       </c>
       <c r="B40" s="3">
-        <v>966447.26348665229</v>
+        <v>5429.8561042141682</v>
       </c>
       <c r="C40" s="3">
-        <v>1403398.6478009603</v>
+        <v>5429.8561042141682</v>
       </c>
       <c r="D40" s="3">
-        <v>11251948.294033851</v>
+        <v>5429.8561042141682</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>93</v>
+      <c r="A41" s="3" t="str">
+        <f>Flows!A41</f>
+        <v>JB</v>
       </c>
       <c r="B41" s="3">
-        <v>2694.4458295273248</v>
+        <v>708.51843060302826</v>
       </c>
       <c r="C41" s="3">
-        <v>2694.4458295273248</v>
+        <v>708.51843060302826</v>
       </c>
       <c r="D41" s="3">
-        <v>2694.4458295273248</v>
+        <v>708.51843060302826</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>94</v>
+      <c r="A42" s="3" t="str">
+        <f>Flows!A42</f>
+        <v>JC</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
+        <v>50.027420760144935</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>50.027420760144935</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>50.027420760144935</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>95</v>
+      <c r="A43" s="3" t="str">
+        <f>Flows!A43</f>
+        <v>KF</v>
       </c>
       <c r="B43" s="3">
-        <v>73369.47388317906</v>
+        <v>108.67125253454107</v>
       </c>
       <c r="C43" s="3">
-        <v>109671.24686030988</v>
+        <v>114.12613107561143</v>
       </c>
       <c r="D43" s="3">
-        <v>40547.826601146808</v>
+        <v>676.44348466189513</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>89</v>
+      <c r="A44" s="3" t="str">
+        <f>Flows!A44</f>
+        <v>KL</v>
       </c>
       <c r="B44" s="3">
-        <v>893077.78960347304</v>
+        <v>966446.58388782595</v>
       </c>
       <c r="C44" s="3">
-        <v>1293727.4009406504</v>
+        <v>1403397.9686965183</v>
       </c>
       <c r="D44" s="3">
-        <v>11211400.467432706</v>
+        <v>11251947.665893001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>96</v>
+      <c r="A45" s="3" t="str">
+        <f>Flows!A45</f>
+        <v>LM</v>
       </c>
       <c r="B45" s="3">
-        <v>413.33354580790461</v>
+        <v>893077.11000464682</v>
       </c>
       <c r="C45" s="3">
-        <v>413.33354580790461</v>
+        <v>1293726.7218362081</v>
       </c>
       <c r="D45" s="3">
-        <v>413.33354580790461</v>
+        <v>11211399.839291852</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>97</v>
+      <c r="A46" s="3" t="str">
+        <f>Flows!A46</f>
+        <v>MN</v>
       </c>
       <c r="B46" s="3">
-        <v>0</v>
+        <v>153457.38998276048</v>
       </c>
       <c r="C46" s="3">
-        <v>0</v>
+        <v>166883.41799574438</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>9994249.5368879456</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>98</v>
+      <c r="A47" s="3" t="str">
+        <f>Flows!A47</f>
+        <v>STM</v>
       </c>
       <c r="B47" s="3">
-        <v>739619.72002188698</v>
+        <v>8794.9356028080419</v>
       </c>
       <c r="C47" s="3">
-        <v>1126843.3038404647</v>
+        <v>8794.9356028080419</v>
       </c>
       <c r="D47" s="3">
-        <v>1217150.3024039089</v>
+        <v>8794.9356028080419</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>90</v>
+      <c r="A48" s="3" t="str">
+        <f>Flows!A48</f>
+        <v>Cu</v>
       </c>
       <c r="B48" s="3">
-        <v>153458.06958158876</v>
+        <v>54774.774587753811</v>
       </c>
       <c r="C48" s="3">
-        <v>166884.09710018933</v>
+        <v>57524.253771586227</v>
       </c>
       <c r="D48" s="3">
-        <v>9994250.1650287993</v>
+        <v>340954.91987214651</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>99</v>
+      <c r="A49" s="3" t="str">
+        <f>Flows!A49</f>
+        <v>Ag</v>
       </c>
       <c r="B49" s="3">
-        <v>7407.4112151954232</v>
+        <v>73369.473883179162</v>
       </c>
       <c r="C49" s="3">
-        <v>7407.4112151954232</v>
+        <v>109671.24686031004</v>
       </c>
       <c r="D49" s="3">
-        <v>7407.4112151954232</v>
+        <v>40547.826601146866</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>87</v>
+      <c r="A50" s="3" t="str">
+        <f>Flows!A50</f>
+        <v>Au</v>
       </c>
       <c r="B50" s="3">
-        <v>0</v>
+        <v>739619.72002188757</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>1126843.3038404656</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
+        <v>1217150.3024039101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>100</v>
+      <c r="A51" s="3" t="str">
+        <f>Flows!A51</f>
+        <v>Pd</v>
       </c>
       <c r="B51" s="3">
-        <v>143789.73425115671</v>
+        <v>143789.73425115633</v>
       </c>
       <c r="C51" s="3">
-        <v>152846.19386726833</v>
+        <v>152846.19386726792</v>
       </c>
       <c r="D51" s="3">
-        <v>9881721.192613991</v>
+        <v>9881721.1926139649</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>105</v>
+      <c r="A52" s="3" t="str">
+        <f>Flows!A52</f>
+        <v>SLW</v>
       </c>
       <c r="B52" s="3">
-        <v>14341.913880398542</v>
+        <v>11207.74280336316</v>
       </c>
       <c r="C52" s="3">
-        <v>14456.984670343048</v>
+        <v>11297.732090417421</v>
       </c>
       <c r="D52" s="3">
-        <v>26319.082348503525</v>
+        <v>20574.297529313444</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>160</v>
+      <c r="A53" s="3" t="str">
+        <f>Flows!A53</f>
+        <v>HGW</v>
       </c>
       <c r="B53" s="3">
-        <v>5417.7850981752708</v>
+        <v>5429.8561042141682</v>
       </c>
       <c r="C53" s="3">
-        <v>5417.7850981752708</v>
+        <v>5429.8561042141682</v>
       </c>
       <c r="D53" s="3">
-        <v>5417.7850981752708</v>
+        <v>5429.8561042141682</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -33165,14 +33164,6 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33296,917 +33287,445 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CF839-FD1C-4C69-AF30-4048581D1452}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CF839-FD1C-4C69-AF30-4048581D1452}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>197</v>
+      <c r="E1" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="26">
-        <f>SUM(D2:K2)</f>
+      <c r="C2" s="22">
         <v>0</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>0</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="21">
         <v>0</v>
       </c>
-      <c r="F2" s="26">
-        <v>0</v>
-      </c>
-      <c r="G2" s="26">
-        <v>0</v>
-      </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26">
-        <v>0</v>
-      </c>
-      <c r="J2" s="26">
-        <v>0</v>
-      </c>
-      <c r="K2" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="26">
-        <f t="shared" ref="C3:C25" si="0">SUM(D3:K3)</f>
+      <c r="C3" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E3" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0</v>
-      </c>
-      <c r="J3" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K3" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="26">
-        <f t="shared" si="0"/>
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26">
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="26">
-        <f t="shared" si="0"/>
+      <c r="C5" s="22">
+        <v>0.32324939055285429</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1.4637879913033733</v>
+      </c>
+      <c r="E5" s="21">
         <v>1.7870373818562277</v>
       </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0.32324939055285429</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26">
-        <v>1.4637879913033733</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="26">
-        <f t="shared" si="0"/>
+      <c r="C6" s="22">
         <v>0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="21">
         <v>0</v>
       </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="26">
-        <f t="shared" si="0"/>
+      <c r="C7" s="22">
+        <v>0.32324939055285429</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1.4637879913033733</v>
+      </c>
+      <c r="E7" s="21">
         <v>1.7870373818562277</v>
       </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0.32324939055285429</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>1.4637879913033733</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="26">
-        <f t="shared" si="0"/>
+      <c r="C8" s="22">
         <v>0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="26">
-        <v>0</v>
-      </c>
-      <c r="I8" s="26">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26">
-        <f t="shared" si="0"/>
+      <c r="C9" s="22">
         <v>0</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="22">
         <v>0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>0</v>
       </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
-        <v>0</v>
-      </c>
-      <c r="J9" s="27">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="26">
-        <f t="shared" si="0"/>
+      <c r="C10" s="22">
         <v>0</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="22">
         <v>0</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>0</v>
       </c>
-      <c r="F10" s="27">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="26">
-        <f t="shared" si="0"/>
+      <c r="C11" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E11" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D11" s="27">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I11" s="27">
-        <v>0</v>
-      </c>
-      <c r="J11" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="26">
-        <f t="shared" si="0"/>
+      <c r="C12" s="22">
         <v>0</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="22">
         <v>0</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>0</v>
       </c>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="26">
-        <f t="shared" si="0"/>
+      <c r="C13" s="22">
         <v>0</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="22">
         <v>0</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
-        <v>0</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>0</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="26">
-        <f t="shared" si="0"/>
+      <c r="C14" s="22">
         <v>0</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="22">
         <v>0</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <v>0</v>
       </c>
-      <c r="F14" s="27">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="26">
-        <f t="shared" si="0"/>
+      <c r="C15" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E15" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I15" s="27">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K15" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26">
-        <f t="shared" si="0"/>
+      <c r="C16" s="22">
         <v>0</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="22">
         <v>0</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="21">
         <v>0</v>
       </c>
-      <c r="F16" s="27">
-        <v>0</v>
-      </c>
-      <c r="G16" s="27">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
-        <v>0</v>
-      </c>
-      <c r="J16" s="27">
-        <v>0</v>
-      </c>
-      <c r="K16" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="26">
-        <f t="shared" si="0"/>
+      <c r="C17" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E17" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D17" s="27">
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I17" s="27">
-        <v>0</v>
-      </c>
-      <c r="J17" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K17" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="26">
-        <f t="shared" si="0"/>
+      <c r="C18" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E18" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <v>0</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I18" s="27">
-        <v>0</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K18" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="26">
-        <f t="shared" si="0"/>
+      <c r="C19" s="22">
         <v>0</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <v>0</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="21">
         <v>0</v>
       </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
-        <v>0</v>
-      </c>
-      <c r="I19" s="26">
-        <v>0</v>
-      </c>
-      <c r="J19" s="26">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="26">
-        <f t="shared" si="0"/>
+      <c r="C20" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E20" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I20" s="27">
-        <v>0</v>
-      </c>
-      <c r="J20" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K20" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="26">
-        <f t="shared" si="0"/>
+      <c r="C21" s="22">
         <v>0</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <v>0</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="21">
         <v>0</v>
       </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="26">
-        <v>0</v>
-      </c>
-      <c r="K21" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="26">
-        <f t="shared" si="0"/>
+      <c r="C22" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E22" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I22" s="27">
-        <v>0</v>
-      </c>
-      <c r="J22" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K22" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="26">
-        <f t="shared" si="0"/>
+      <c r="C23" s="22">
         <v>0</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="22">
         <v>0</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="21">
         <v>0</v>
       </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
-        <v>0</v>
-      </c>
-      <c r="I23" s="26">
-        <v>0</v>
-      </c>
-      <c r="J23" s="26">
-        <v>0</v>
-      </c>
-      <c r="K23" s="26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="26">
-        <f t="shared" si="0"/>
+      <c r="C24" s="22">
+        <v>0.13372700228208803</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0.92675643267943575</v>
+      </c>
+      <c r="E24" s="21">
         <v>1.0604834349615238</v>
       </c>
-      <c r="D24" s="27">
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="27">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
-        <v>0.13372700228208803</v>
-      </c>
-      <c r="I24" s="27">
-        <v>0</v>
-      </c>
-      <c r="J24" s="26">
-        <v>0.92675643267943575</v>
-      </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="26">
-        <f t="shared" si="0"/>
+      <c r="C25" s="22">
         <v>0</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <v>0</v>
       </c>
-      <c r="E25" s="26">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>0</v>
-      </c>
-      <c r="I25" s="26">
-        <v>0</v>
-      </c>
-      <c r="J25" s="26">
-        <v>0</v>
-      </c>
-      <c r="K25" s="26">
+      <c r="E25" s="21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -34228,7 +33747,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34250,7 +33769,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -34261,7 +33780,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
